--- a/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
+++ b/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/iCloud-Drive-Dec-2018/Documents/R/R_repositories/E2M2/E2M2-2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/iCloud-Drive-Dec-2018/Documents/R/R_repositories/E2M2/E2M2-2019/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F49DECA-137A-4B4E-AA62-9088DA1C28C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8B6D8A-D1C8-8F43-BED3-5216A6EB15A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3120" windowWidth="27640" windowHeight="16260" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
+    <workbookView xWindow="1160" yWindow="980" windowWidth="27640" windowHeight="16260" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Team Antso</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Liz(?)</t>
-  </si>
-  <si>
-    <t>Mc Antonin Andriamahaivana</t>
   </si>
   <si>
     <t>Kimberly Rivera</t>
@@ -487,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5AB2BD-8B3F-3B4C-83C3-5F02B95CCB76}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -561,7 +558,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -578,7 +575,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -586,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -613,11 +610,6 @@
       </c>
       <c r="E8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
+++ b/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/iCloud-Drive-Dec-2018/Documents/R/R_repositories/E2M2/E2M2-2019/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8B6D8A-D1C8-8F43-BED3-5216A6EB15A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E96CDE-7929-464E-8232-6A93A7B0AA36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="980" windowWidth="27640" windowHeight="16260" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
+    <workbookView xWindow="5180" yWindow="2260" windowWidth="27640" windowHeight="16260" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,21 +46,12 @@
     <t>Ben</t>
   </si>
   <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>Cara</t>
-  </si>
-  <si>
     <t>Sarah</t>
   </si>
   <si>
     <t>Fidy</t>
   </si>
   <si>
-    <t>Andres</t>
-  </si>
-  <si>
     <t>Christian</t>
   </si>
   <si>
@@ -114,9 +106,6 @@
     <t>Santino Andry</t>
   </si>
   <si>
-    <t>Liz(?)</t>
-  </si>
-  <si>
     <t>Kimberly Rivera</t>
   </si>
   <si>
@@ -124,6 +113,18 @@
   </si>
   <si>
     <t>Angelo Andrianiaina</t>
+  </si>
+  <si>
+    <t>Liz</t>
+  </si>
+  <si>
+    <t>Cara Brook</t>
+  </si>
+  <si>
+    <t>Amy Wesolowski</t>
+  </si>
+  <si>
+    <t>Andres Garchitorena</t>
   </si>
 </sst>
 </file>
@@ -487,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,47 +519,67 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -566,53 +587,47 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D374E2-35C6-7940-975E-C6ED29AD2B32}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
+++ b/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/iCloud-Drive-Dec-2018/Documents/R/R_repositories/E2M2/E2M2-2019/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E96CDE-7929-464E-8232-6A93A7B0AA36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DD661D-35F2-CE47-BC70-ADF045E9D7F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="2260" windowWidth="27640" windowHeight="16260" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
+    <workbookView xWindow="4520" yWindow="3200" windowWidth="27640" windowHeight="16260" activeTab="1" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ChallengeTeams" sheetId="1" r:id="rId1"/>
+    <sheet name="SubjectTeams" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>Team Antso</t>
   </si>
@@ -125,13 +125,112 @@
   </si>
   <si>
     <t>Andres Garchitorena</t>
+  </si>
+  <si>
+    <t>Herilantonirina Solotiana Ramaroson</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>malaria incidence in Amboasary Sud</t>
+  </si>
+  <si>
+    <t>mosquito population dynamics</t>
+  </si>
+  <si>
+    <t>Diary Tsirilalaina Randrianirina</t>
+  </si>
+  <si>
+    <t>depression in medical students</t>
+  </si>
+  <si>
+    <t>barriers to healthcare access in Ifanadiana</t>
+  </si>
+  <si>
+    <t>plant galls and plant-frugivore-lemur-insect</t>
+  </si>
+  <si>
+    <t>depredation and carnivore viability</t>
+  </si>
+  <si>
+    <t>seroprevalence of WNV in wild birds in Madagascar</t>
+  </si>
+  <si>
+    <t>deforestation and exotic ants</t>
+  </si>
+  <si>
+    <t>seasonal dynamics in diet</t>
+  </si>
+  <si>
+    <t>decision support tool for malaria incidence</t>
+  </si>
+  <si>
+    <t>eco-epidemiology of soil-bone parasites</t>
+  </si>
+  <si>
+    <t>epidemic dengue model in Réunion</t>
+  </si>
+  <si>
+    <t>seed dispersal by omnivores and rainforest structure</t>
+  </si>
+  <si>
+    <t>cartography of cystocercosis</t>
+  </si>
+  <si>
+    <t>Bartonella dynamics in bats and bat flies</t>
+  </si>
+  <si>
+    <t>risk factors fo WNV in humans, horses birds</t>
+  </si>
+  <si>
+    <t>spillover of honey bee disease to wild bees</t>
+  </si>
+  <si>
+    <t>combat tortoise poaching</t>
+  </si>
+  <si>
+    <t>15 disease, 6 ecology</t>
+  </si>
+  <si>
+    <t>21 total</t>
+  </si>
+  <si>
+    <t>4 groups of 5 + 1 of 6</t>
+  </si>
+  <si>
+    <t>Instructor</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Cara/Christian</t>
+  </si>
+  <si>
+    <t>malaria and deforestation</t>
+  </si>
+  <si>
+    <t>Fidy/Sarah</t>
+  </si>
+  <si>
+    <t>Andres/Ben</t>
+  </si>
+  <si>
+    <t>forest fragmentation and plant-frugivore interactions</t>
+  </si>
+  <si>
+    <t>ecological determinants of plague in Madagascar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,6 +242,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,9 +274,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5AB2BD-8B3F-3B4C-83C3-5F02B95CCB76}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,6 +665,9 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
@@ -573,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -590,7 +700,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -604,15 +714,13 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -622,12 +730,275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D374E2-35C6-7940-975E-C6ED29AD2B32}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
+++ b/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/iCloud-Drive-Dec-2018/Documents/R/R_repositories/E2M2/E2M2-2019/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DD661D-35F2-CE47-BC70-ADF045E9D7F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C77EC6-D6A0-F643-A57B-21CD7F08027E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="3200" windowWidth="27640" windowHeight="16260" activeTab="1" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
+    <workbookView xWindow="1160" yWindow="960" windowWidth="27640" windowHeight="16260" activeTab="1" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengeTeams" sheetId="1" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>Bartonella dynamics in bats and bat flies</t>
   </si>
   <si>
-    <t>risk factors fo WNV in humans, horses birds</t>
-  </si>
-  <si>
     <t>spillover of honey bee disease to wild bees</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>ecological determinants of plague in Madagascar</t>
+  </si>
+  <si>
+    <t>risk factors fo WNV in humans, horses, and birds</t>
   </si>
 </sst>
 </file>
@@ -733,7 +733,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,70 +751,70 @@
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>62</v>
@@ -833,21 +833,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
@@ -855,24 +855,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -880,10 +880,10 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -894,15 +894,15 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -910,68 +910,68 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -979,26 +979,29 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C22">
+    <sortCondition ref="C2:C22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
+++ b/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/iCloud-Drive-Dec-2018/Documents/R/R_repositories/E2M2/E2M2-2019/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C77EC6-D6A0-F643-A57B-21CD7F08027E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E939869-8014-E14F-8AF9-93FAA182D6B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="960" windowWidth="27640" windowHeight="16260" activeTab="1" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
+    <workbookView xWindow="7520" yWindow="940" windowWidth="27640" windowHeight="16260" activeTab="2" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengeTeams" sheetId="1" r:id="rId1"/>
     <sheet name="SubjectTeams" sheetId="2" r:id="rId2"/>
+    <sheet name="IndividualMeetings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="113">
   <si>
     <t>Team Antso</t>
   </si>
@@ -224,13 +225,154 @@
   </si>
   <si>
     <t>risk factors fo WNV in humans, horses, and birds</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Cara</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>risk factors for WNV in humans, horses, and birds</t>
+  </si>
+  <si>
+    <t>4:30-4:45</t>
+  </si>
+  <si>
+    <t>4:45-5:00</t>
+  </si>
+  <si>
+    <t>5:00-5:15</t>
+  </si>
+  <si>
+    <t>5:15-5:30</t>
+  </si>
+  <si>
+    <t>Mirana</t>
+  </si>
+  <si>
+    <t>Malaria incidence in Amboasary Sud</t>
+  </si>
+  <si>
+    <t>Barriers to healthcare access in Ifanadiana</t>
+  </si>
+  <si>
+    <t>Tanjona</t>
+  </si>
+  <si>
+    <t>Santino</t>
+  </si>
+  <si>
+    <t>Deforestation and exotic ants</t>
+  </si>
+  <si>
+    <t>Combatting tortoise poaching</t>
+  </si>
+  <si>
+    <t>Malaria and deforestation</t>
+  </si>
+  <si>
+    <t>Decision support tool for malaria incidence</t>
+  </si>
+  <si>
+    <t>Mosquito population dynamics</t>
+  </si>
+  <si>
+    <t>Anthonio</t>
+  </si>
+  <si>
+    <t>Spillover of honey bee disease to wild bees</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Kayleigh</t>
+  </si>
+  <si>
+    <t>Eco-epidemiology of soil-bone parasites</t>
+  </si>
+  <si>
+    <t>Angelo</t>
+  </si>
+  <si>
+    <t>Nancia</t>
+  </si>
+  <si>
+    <t>Forest fragmentation and plant-frugivore interactions</t>
+  </si>
+  <si>
+    <t>Feno</t>
+  </si>
+  <si>
+    <t>Ecological determinants of plague in Madagascar</t>
+  </si>
+  <si>
+    <t>Epidemic dengue model in Réunion</t>
+  </si>
+  <si>
+    <t>Cartography of cystocercosis</t>
+  </si>
+  <si>
+    <t>Diary</t>
+  </si>
+  <si>
+    <t>Depression in medical students</t>
+  </si>
+  <si>
+    <t>Seasonal dynamics in diet</t>
+  </si>
+  <si>
+    <t>Plant galls and plant-frugivore-lemur-insect</t>
+  </si>
+  <si>
+    <t>Rindra</t>
+  </si>
+  <si>
+    <t>Robuste</t>
+  </si>
+  <si>
+    <t>Miatrana</t>
+  </si>
+  <si>
+    <t>Seroprevalence of WNV in wild birds in Madagascar</t>
+  </si>
+  <si>
+    <t>Vero</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Helene</t>
+  </si>
+  <si>
+    <t>Herilanto</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>Miadana</t>
+  </si>
+  <si>
+    <t>Anecia</t>
+  </si>
+  <si>
+    <t>Liantsoa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +395,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +426,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -270,14 +434,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D374E2-35C6-7940-975E-C6ED29AD2B32}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1004,4 +1189,344 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB07828-59C4-8F4A-938B-D5C9632F6434}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
+++ b/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/iCloud-Drive-Dec-2018/Documents/R/R_repositories/E2M2/E2M2-2019/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E939869-8014-E14F-8AF9-93FAA182D6B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0ACF0D-9566-0E40-BC71-FDD5D78CF77F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="940" windowWidth="27640" windowHeight="16260" activeTab="2" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
+    <workbookView xWindow="1160" yWindow="940" windowWidth="27640" windowHeight="16260" activeTab="2" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengeTeams" sheetId="1" r:id="rId1"/>
@@ -242,12 +242,6 @@
     <t>risk factors for WNV in humans, horses, and birds</t>
   </si>
   <si>
-    <t>4:30-4:45</t>
-  </si>
-  <si>
-    <t>4:45-5:00</t>
-  </si>
-  <si>
     <t>5:00-5:15</t>
   </si>
   <si>
@@ -366,6 +360,12 @@
   </si>
   <si>
     <t>Liantsoa</t>
+  </si>
+  <si>
+    <t>5:45-6:00</t>
+  </si>
+  <si>
+    <t>5:30-5:45</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -449,11 +449,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -463,6 +476,7 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1196,7 +1210,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D22"/>
+      <selection activeCell="B20" sqref="B20:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1230,10 +1244,10 @@
         <v>71</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1244,10 +1258,10 @@
         <v>72</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1255,13 +1269,13 @@
         <v>58</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1269,13 +1283,13 @@
         <v>58</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1286,10 +1300,10 @@
         <v>71</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1300,10 +1314,10 @@
         <v>72</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1311,13 +1325,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1328,10 +1342,10 @@
         <v>71</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1342,10 +1356,10 @@
         <v>72</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1353,10 +1367,10 @@
         <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>70</v>
@@ -1367,10 +1381,10 @@
         <v>67</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>42</v>
@@ -1384,7 +1398,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>49</v>
@@ -1394,11 +1408,11 @@
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>51</v>
@@ -1408,14 +1422,14 @@
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>73</v>
+      <c r="B15" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1423,13 +1437,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1440,38 +1454,38 @@
         <v>71</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>73</v>
+      <c r="B19" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1482,38 +1496,38 @@
         <v>71</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>73</v>
+      <c r="B22" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">

--- a/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
+++ b/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/iCloud-Drive-Dec-2018/Documents/R/R_repositories/E2M2/E2M2-2019/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0ACF0D-9566-0E40-BC71-FDD5D78CF77F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1192DBF3-DE66-9745-9124-2644F1CE38C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="940" windowWidth="27640" windowHeight="16260" activeTab="2" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
+    <workbookView xWindow="9000" yWindow="3180" windowWidth="27640" windowHeight="16260" activeTab="2" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengeTeams" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="112">
   <si>
     <t>Team Antso</t>
   </si>
@@ -239,15 +239,6 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>risk factors for WNV in humans, horses, and birds</t>
-  </si>
-  <si>
-    <t>5:00-5:15</t>
-  </si>
-  <si>
-    <t>5:15-5:30</t>
-  </si>
-  <si>
     <t>Mirana</t>
   </si>
   <si>
@@ -362,10 +353,16 @@
     <t>Liantsoa</t>
   </si>
   <si>
-    <t>5:45-6:00</t>
-  </si>
-  <si>
-    <t>5:30-5:45</t>
+    <t>5:30-5:50</t>
+  </si>
+  <si>
+    <t>5:50-6:10</t>
+  </si>
+  <si>
+    <t>6:10-6:30</t>
+  </si>
+  <si>
+    <t>Risk factors for WNV in humans, horses, and birds</t>
   </si>
 </sst>
 </file>
@@ -426,7 +423,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -449,24 +446,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -475,8 +459,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,7 +1193,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B22"/>
+      <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,13 +1224,13 @@
         <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1255,13 +1238,13 @@
         <v>58</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1269,27 +1252,27 @@
         <v>58</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1297,13 +1280,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1311,27 +1294,27 @@
         <v>66</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1339,13 +1322,13 @@
         <v>67</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1353,94 +1336,94 @@
         <v>67</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>71</v>
+      <c r="B13" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>112</v>
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>84</v>
@@ -1448,86 +1431,86 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>71</v>
+        <v>5</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>112</v>
+        <v>5</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>71</v>
+      <c r="A20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>72</v>
+      <c r="A21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="C22" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">

--- a/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
+++ b/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/iCloud-Drive-Dec-2018/Documents/R/R_repositories/E2M2/E2M2-2019/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1192DBF3-DE66-9745-9124-2644F1CE38C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809B052B-4DCC-F34C-9C2B-B115E04B2645}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="3180" windowWidth="27640" windowHeight="16260" activeTab="2" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
+    <workbookView xWindow="1160" yWindow="4580" windowWidth="27640" windowHeight="16260" activeTab="2" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengeTeams" sheetId="1" r:id="rId1"/>
@@ -353,16 +353,16 @@
     <t>Liantsoa</t>
   </si>
   <si>
-    <t>5:30-5:50</t>
-  </si>
-  <si>
-    <t>5:50-6:10</t>
-  </si>
-  <si>
-    <t>6:10-6:30</t>
-  </si>
-  <si>
     <t>Risk factors for WNV in humans, horses, and birds</t>
+  </si>
+  <si>
+    <t>11:20-11:40 am</t>
+  </si>
+  <si>
+    <t>11:00-11:20 am</t>
+  </si>
+  <si>
+    <t>11:40 am- 12:00 pm</t>
   </si>
 </sst>
 </file>
@@ -1193,13 +1193,13 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" customWidth="1"/>
@@ -1224,13 +1224,13 @@
         <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1241,10 +1241,10 @@
         <v>109</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1252,13 +1252,13 @@
         <v>58</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1266,13 +1266,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1283,10 +1283,10 @@
         <v>109</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1294,13 +1294,13 @@
         <v>66</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1308,13 +1308,13 @@
         <v>67</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1325,10 +1325,10 @@
         <v>109</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1336,13 +1336,13 @@
         <v>67</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1350,13 +1350,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1367,10 +1367,10 @@
         <v>109</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1378,13 +1378,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1392,13 +1392,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1409,10 +1409,10 @@
         <v>109</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1420,13 +1420,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1434,13 +1434,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,10 +1451,10 @@
         <v>109</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1462,13 +1462,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1476,13 +1476,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1493,10 +1493,10 @@
         <v>109</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1504,13 +1504,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">

--- a/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
+++ b/E2M2-2019/Admin/0_MentorInstructorStudentTeams.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/iCloud-Drive-Dec-2018/Documents/R/R_repositories/E2M2/E2M2-2019/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809B052B-4DCC-F34C-9C2B-B115E04B2645}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501E0F00-66DB-F74E-B405-1642EE690B91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="4580" windowWidth="27640" windowHeight="16260" activeTab="2" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
+    <workbookView xWindow="1160" yWindow="960" windowWidth="27640" windowHeight="16260" activeTab="3" xr2:uid="{5F653717-73CD-4D4B-AB14-8CFD16EF827E}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengeTeams" sheetId="1" r:id="rId1"/>
     <sheet name="SubjectTeams" sheetId="2" r:id="rId2"/>
     <sheet name="IndividualMeetings" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="116">
   <si>
     <t>Team Antso</t>
   </si>
@@ -363,6 +364,18 @@
   </si>
   <si>
     <t>11:40 am- 12:00 pm</t>
+  </si>
+  <si>
+    <t>Final Reviewers</t>
+  </si>
+  <si>
+    <t>Review 1</t>
+  </si>
+  <si>
+    <t>Review 2</t>
+  </si>
+  <si>
+    <t>Seed dispersal by omnivores and rainforest structure</t>
   </si>
 </sst>
 </file>
@@ -450,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -460,6 +473,9 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB07828-59C4-8F4A-938B-D5C9632F6434}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1526,4 +1542,338 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586A93DB-B97E-814B-9C5D-B34CC775A02C}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>